--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 4.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 4.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -726,7 +726,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -749,7 +749,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -910,7 +910,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1117,7 +1117,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1439,7 +1439,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1462,7 +1462,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1531,7 +1531,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1577,7 +1577,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1761,7 +1761,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1784,7 +1784,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1807,7 +1807,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1830,7 +1830,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1880,7 +1880,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1903,7 +1903,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2018,7 +2018,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2041,7 +2041,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2064,7 +2064,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2110,7 +2110,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2133,7 +2133,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2156,7 +2156,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2179,12 +2179,12 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Davis I guess, maybe I will.</t>
+          <t>T I guess, maybe I will.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2202,7 +2202,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2248,7 +2248,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2340,7 +2340,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2386,7 +2386,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2570,7 +2570,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3306,7 +3306,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3329,7 +3329,7 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3352,7 +3352,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3375,7 +3375,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3536,7 +3536,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3812,7 +3812,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3835,7 +3835,7 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4042,7 +4042,7 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4111,7 +4111,7 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
